--- a/FittingExcel.xlsx
+++ b/FittingExcel.xlsx
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2191197036384</v>
+        <v>2193760567136</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2191197076112</v>
+        <v>2193760610960</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2191197063504</v>
+        <v>2193760594256</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2191197027680</v>
+        <v>2193760546144</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2191197027728</v>
+        <v>2193760546192</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2191197075840</v>
+        <v>2193760610688</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2191197059712</v>
+        <v>2193760569984</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2191197075680</v>
+        <v>2193760610528</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2191197063344</v>
+        <v>2193760594096</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2191197047040</v>
+        <v>2193760573696</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2191197075488</v>
+        <v>2193760610336</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2191197063168</v>
+        <v>2193760593920</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2191197048240</v>
+        <v>2193760574896</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2191197085152</v>
+        <v>2193760550368</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2191197077168</v>
+        <v>2193760612016</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2191197108832</v>
+        <v>2193797782112</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2191197109008</v>
+        <v>2193797782288</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2191197109712</v>
+        <v>2193797782992</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2191197112640</v>
+        <v>2193760586048</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2191197113216</v>
+        <v>2193760586624</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2191197174512</v>
+        <v>2193797798640</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2191197100256</v>
+        <v>2193797757152</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2191197101056</v>
+        <v>2193797757952</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2191197174560</v>
+        <v>2193797798688</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2191197101584</v>
+        <v>2193797758480</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2191197101760</v>
+        <v>2193797758656</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2191197104192</v>
+        <v>2193797785664</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2191197105552</v>
+        <v>2193797787024</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2191197120512</v>
+        <v>2193797777408</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2191197174768</v>
+        <v>2193797798896</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2191197121552</v>
+        <v>2193797778448</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2191197121728</v>
+        <v>2193797778624</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2191197125392</v>
+        <v>2193797761808</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2191197122320</v>
+        <v>2193797779216</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2191197154208</v>
+        <v>2193797766048</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2191197174928</v>
+        <v>2193797799056</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2191197153936</v>
+        <v>2193797765776</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2191197154768</v>
+        <v>2193797766608</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2191197175088</v>
+        <v>2193797799216</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2191197080688</v>
+        <v>2193760599152</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2191197081328</v>
+        <v>2193760599792</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2191197071504</v>
+        <v>2193760602256</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2191197065008</v>
+        <v>2193760595760</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2191197079792</v>
+        <v>2193760598256</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2191197080080</v>
+        <v>2193760598544</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2191197092224</v>
+        <v>2193760614784</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2191197092496</v>
+        <v>2193760615056</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2191197092672</v>
+        <v>2193760615232</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2191197093312</v>
+        <v>2193760615872</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2191197093584</v>
+        <v>2193760616144</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2191197067264</v>
+        <v>2193760606208</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2191197067776</v>
+        <v>2193760606720</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2191197068048</v>
+        <v>2193760606992</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2191197068224</v>
+        <v>2193760607168</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2191197052112</v>
+        <v>2193760537808</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2191197340288</v>
+        <v>2193797988992</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>270524.3613665898</v>
       </c>
       <c r="G57" t="n">
-        <v>2191197711776</v>
+        <v>2193798200736</v>
       </c>
       <c r="H57" t="n">
         <v>37.31384154498028</v>
@@ -2945,7 +2945,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2191197341456</v>
+        <v>2193797990160</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>270555.7488827165</v>
       </c>
       <c r="G58" t="n">
-        <v>2191198051760</v>
+        <v>2193798553008</v>
       </c>
       <c r="H58" t="n">
         <v>23.89929216945404</v>
@@ -2985,7 +2985,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2191197352992</v>
+        <v>2193797993504</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>271054.0739844544</v>
       </c>
       <c r="G59" t="n">
-        <v>2191197703904</v>
+        <v>2193798209248</v>
       </c>
       <c r="H59" t="n">
         <v>48.93589928359076</v>
@@ -3025,7 +3025,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2191197360432</v>
+        <v>2193798000944</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>271006.6929610152</v>
       </c>
       <c r="G60" t="n">
-        <v>2191197703424</v>
+        <v>2193798208768</v>
       </c>
       <c r="H60" t="n">
         <v>50.72184293605336</v>
@@ -3065,7 +3065,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2191197361600</v>
+        <v>2193798002112</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>270989.0317270344</v>
       </c>
       <c r="G61" t="n">
-        <v>2191198130032</v>
+        <v>2193798631280</v>
       </c>
       <c r="H61" t="n">
         <v>200.3909351424605</v>
@@ -3105,7 +3105,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2191197332176</v>
+        <v>2193798009552</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>270507.2606499979</v>
       </c>
       <c r="G62" t="n">
-        <v>2191197661504</v>
+        <v>2193798154560</v>
       </c>
       <c r="H62" t="n">
         <v>23.34758186380705</v>
@@ -3145,7 +3145,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2191197333344</v>
+        <v>2193798010720</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>270564.0321304342</v>
       </c>
       <c r="G63" t="n">
-        <v>2191197969168</v>
+        <v>2193798515472</v>
       </c>
       <c r="H63" t="n">
         <v>35.11556840469632</v>
@@ -3185,7 +3185,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2191197335600</v>
+        <v>2193798012976</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>272104.6270826291</v>
       </c>
       <c r="G64" t="n">
-        <v>2191198416272</v>
+        <v>2193798901136</v>
       </c>
       <c r="H64" t="n">
         <v>3.927984108464015</v>
@@ -3225,7 +3225,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2191197336064</v>
+        <v>2193798013440</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>271632.5170599372</v>
       </c>
       <c r="G65" t="n">
-        <v>2191198138192</v>
+        <v>2193798635344</v>
       </c>
       <c r="H65" t="n">
         <v>67.64616406915519</v>
@@ -3265,7 +3265,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2191197336400</v>
+        <v>2193798013776</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>271629.8479049121</v>
       </c>
       <c r="G66" t="n">
-        <v>2191198138192</v>
+        <v>2193798635344</v>
       </c>
       <c r="H66" t="n">
         <v>67.64616406915519</v>
@@ -3305,7 +3305,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2191197336592</v>
+        <v>2193798013968</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>271596.6307631442</v>
       </c>
       <c r="G67" t="n">
-        <v>2191198138192</v>
+        <v>2193798635344</v>
       </c>
       <c r="H67" t="n">
         <v>67.64616406915519</v>
@@ -3345,7 +3345,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2191197336736</v>
+        <v>2193798014112</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>271343.7319797942</v>
       </c>
       <c r="G68" t="n">
-        <v>2191197369920</v>
+        <v>2193798018624</v>
       </c>
       <c r="H68" t="n">
         <v>2.061552804384477</v>
@@ -3385,7 +3385,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2191197368752</v>
+        <v>2193798017456</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>271339.085620494</v>
       </c>
       <c r="G69" t="n">
-        <v>2191197336720</v>
+        <v>2193798014096</v>
       </c>
       <c r="H69" t="n">
         <v>5.329999999918551</v>
@@ -3425,7 +3425,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2191197369984</v>
+        <v>2193798018688</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>271212.2020590315</v>
       </c>
       <c r="G70" t="n">
-        <v>2191197830576</v>
+        <v>2193798364592</v>
       </c>
       <c r="H70" t="n">
         <v>1.123902588080444</v>
@@ -3465,7 +3465,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2191197370192</v>
+        <v>2193798018896</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2191197372560</v>
+        <v>2193798060176</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>271209.4977767678</v>
       </c>
       <c r="G72" t="n">
-        <v>2191197336720</v>
+        <v>2193798014096</v>
       </c>
       <c r="H72" t="n">
         <v>5.329999999918551</v>
@@ -3549,7 +3549,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2191197373760</v>
+        <v>2193798061376</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>271152.5171284719</v>
       </c>
       <c r="G73" t="n">
-        <v>2191198005808</v>
+        <v>2193798548016</v>
       </c>
       <c r="H73" t="n">
         <v>61.9803865381803</v>
@@ -3589,7 +3589,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2191197377136</v>
+        <v>2193798085232</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>271158.9559128828</v>
       </c>
       <c r="G74" t="n">
-        <v>2191197891840</v>
+        <v>2193798421760</v>
       </c>
       <c r="H74" t="n">
         <v>6.452888697315397</v>
@@ -3629,7 +3629,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2191197378320</v>
+        <v>2193798086416</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>271171.1869003237</v>
       </c>
       <c r="G75" t="n">
-        <v>2191197891824</v>
+        <v>2193798421744</v>
       </c>
       <c r="H75" t="n">
         <v>12.66807923029446</v>
@@ -3669,7 +3669,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2191197381664</v>
+        <v>2193798069280</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>271182.9426360119</v>
       </c>
       <c r="G76" t="n">
-        <v>2191198006176</v>
+        <v>2193798548384</v>
       </c>
       <c r="H76" t="n">
         <v>4.16415778238493</v>
@@ -3709,7 +3709,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2191197563184</v>
+        <v>2193798064432</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2191197564432</v>
+        <v>2193798065680</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2191197575984</v>
+        <v>2193798077232</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>270925.7140102788</v>
       </c>
       <c r="G79" t="n">
-        <v>2191197567040</v>
+        <v>2193798056000</v>
       </c>
       <c r="H79" t="n">
         <v>5.642221734953504</v>
@@ -3837,7 +3837,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2191197567056</v>
+        <v>2193798056016</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2191197568224</v>
+        <v>2193798057184</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2191197555184</v>
+        <v>2193798081008</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2191197556400</v>
+        <v>2193798082224</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>270800.0420100968</v>
       </c>
       <c r="G83" t="n">
-        <v>2191198182576</v>
+        <v>2193798646960</v>
       </c>
       <c r="H83" t="n">
         <v>8.075897745385053</v>
@@ -4009,7 +4009,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2191197571072</v>
+        <v>2193798100992</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>270771.6989042242</v>
       </c>
       <c r="G84" t="n">
-        <v>2191198182576</v>
+        <v>2193798646960</v>
       </c>
       <c r="H84" t="n">
         <v>8.075897745385053</v>
@@ -4049,7 +4049,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2191197571248</v>
+        <v>2193798101168</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2191197572416</v>
+        <v>2193798102336</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2191197579856</v>
+        <v>2193798093392</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2191197580080</v>
+        <v>2193798093616</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>270778.0863085267</v>
       </c>
       <c r="G88" t="n">
-        <v>2191197990224</v>
+        <v>2193798454608</v>
       </c>
       <c r="H88" t="n">
         <v>25.3139756873442</v>
@@ -4221,7 +4221,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2191197580256</v>
+        <v>2193798093792</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>270796.0603174619</v>
       </c>
       <c r="G89" t="n">
-        <v>2191198144832</v>
+        <v>2193798613312</v>
       </c>
       <c r="H89" t="n">
         <v>18.13317305723006</v>
@@ -4261,7 +4261,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2191197580512</v>
+        <v>2193798094048</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>270803.0529610813</v>
       </c>
       <c r="G90" t="n">
-        <v>2191197936800</v>
+        <v>2193798474912</v>
       </c>
       <c r="H90" t="n">
         <v>11.44940023099987</v>
@@ -4301,7 +4301,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2191197580704</v>
+        <v>2193798094240</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>270804.6634725335</v>
       </c>
       <c r="G91" t="n">
-        <v>2191197580688</v>
+        <v>2193798094224</v>
       </c>
       <c r="H91" t="n">
         <v>12.3497404037923</v>
@@ -4341,7 +4341,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2191197551280</v>
+        <v>2193798089392</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>270808.754094313</v>
       </c>
       <c r="G92" t="n">
-        <v>2191197580496</v>
+        <v>2193798094032</v>
       </c>
       <c r="H92" t="n">
         <v>7.074391385040757</v>
@@ -4381,7 +4381,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2191197551360</v>
+        <v>2193798089472</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>270797.1155762367</v>
       </c>
       <c r="G93" t="n">
-        <v>2191197580464</v>
+        <v>2193798094000</v>
       </c>
       <c r="H93" t="n">
         <v>67.16196527960973</v>
@@ -4421,7 +4421,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2191197551520</v>
+        <v>2193798089632</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>270803.4087410942</v>
       </c>
       <c r="G94" t="n">
-        <v>2191197580688</v>
+        <v>2193798094224</v>
       </c>
       <c r="H94" t="n">
         <v>12.3497404037923</v>
@@ -4461,7 +4461,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2191197583712</v>
+        <v>2193798072672</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>270802.2684421648</v>
       </c>
       <c r="G95" t="n">
-        <v>2191197936800</v>
+        <v>2193798474912</v>
       </c>
       <c r="H95" t="n">
         <v>11.44940023099987</v>
@@ -4501,7 +4501,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2191197584880</v>
+        <v>2193798073840</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2191197585120</v>
+        <v>2193798074080</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>271623.5174624625</v>
       </c>
       <c r="G97" t="n">
-        <v>2191198138192</v>
+        <v>2193798635344</v>
       </c>
       <c r="H97" t="n">
         <v>67.64616406915519</v>
@@ -4585,7 +4585,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2191197588464</v>
+        <v>2193798122480</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>271620.0212650035</v>
       </c>
       <c r="G98" t="n">
-        <v>2191198138192</v>
+        <v>2193798635344</v>
       </c>
       <c r="H98" t="n">
         <v>67.64616406915519</v>
@@ -4625,7 +4625,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2191197588640</v>
+        <v>2193798122656</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>271618.5447032934</v>
       </c>
       <c r="G99" t="n">
-        <v>2191198138192</v>
+        <v>2193798635344</v>
       </c>
       <c r="H99" t="n">
         <v>67.64616406915519</v>
@@ -4665,7 +4665,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2191197559216</v>
+        <v>2193798097328</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>271616.4359370216</v>
       </c>
       <c r="G100" t="n">
-        <v>2191197585104</v>
+        <v>2193798074064</v>
       </c>
       <c r="H100" t="n">
         <v>222.5269753768227</v>
@@ -4705,7 +4705,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2191197560400</v>
+        <v>2193798098512</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2191197560608</v>
+        <v>2193798098720</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>271592.5103368456</v>
       </c>
       <c r="G102" t="n">
-        <v>2191197585104</v>
+        <v>2193798074064</v>
       </c>
       <c r="H102" t="n">
         <v>222.5269753768227</v>
@@ -4789,7 +4789,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2191197621296</v>
+        <v>2193798130736</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>271589.2133736241</v>
       </c>
       <c r="G103" t="n">
-        <v>2191197585104</v>
+        <v>2193798074064</v>
       </c>
       <c r="H103" t="n">
         <v>222.5269753768227</v>
@@ -4829,7 +4829,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2191197616448</v>
+        <v>2193798113600</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>271593.867714762</v>
       </c>
       <c r="G104" t="n">
-        <v>2191197585104</v>
+        <v>2193798074064</v>
       </c>
       <c r="H104" t="n">
         <v>222.5269753768227</v>
@@ -4869,7 +4869,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2191197616752</v>
+        <v>2193798113904</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>271585.4140175803</v>
       </c>
       <c r="G105" t="n">
-        <v>2191198129648</v>
+        <v>2193798630896</v>
       </c>
       <c r="H105" t="n">
         <v>13.11522232244805</v>
@@ -4909,7 +4909,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2191197618032</v>
+        <v>2193798115184</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>271668.4514434017</v>
       </c>
       <c r="G106" t="n">
-        <v>2191198412592</v>
+        <v>2193798872880</v>
       </c>
       <c r="H106" t="n">
         <v>4.934026375364506</v>
@@ -4949,7 +4949,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2191197612192</v>
+        <v>2193798117536</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>271664.791170655</v>
       </c>
       <c r="G107" t="n">
-        <v>2191197612384</v>
+        <v>2193798117728</v>
       </c>
       <c r="H107" t="n">
         <v>9.063611826316652</v>
@@ -4989,7 +4989,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2191197612400</v>
+        <v>2193798117744</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>271677.2386217616</v>
       </c>
       <c r="G108" t="n">
-        <v>2191197612384</v>
+        <v>2193798117728</v>
       </c>
       <c r="H108" t="n">
         <v>9.063611826316652</v>
@@ -5029,7 +5029,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2191197612640</v>
+        <v>2193798117984</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>271654.2864820192</v>
       </c>
       <c r="G109" t="n">
-        <v>2191197617664</v>
+        <v>2193798114816</v>
       </c>
       <c r="H109" t="n">
         <v>7.893267201939259</v>
@@ -5069,7 +5069,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2191197613808</v>
+        <v>2193798119152</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>271652.8608645403</v>
       </c>
       <c r="G110" t="n">
-        <v>2191197617664</v>
+        <v>2193798114816</v>
       </c>
       <c r="H110" t="n">
         <v>7.893267201939259</v>
@@ -5109,7 +5109,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2191197592576</v>
+        <v>2193798126592</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>271634.857236108</v>
       </c>
       <c r="G111" t="n">
-        <v>2191197595920</v>
+        <v>2193798109456</v>
       </c>
       <c r="H111" t="n">
         <v>134.0243350475804</v>
@@ -5149,7 +5149,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2191197595984</v>
+        <v>2193798109520</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>271536.4754585939</v>
       </c>
       <c r="G112" t="n">
-        <v>2191198129616</v>
+        <v>2193798630864</v>
       </c>
       <c r="H112" t="n">
         <v>96.79708788335115</v>
@@ -5189,7 +5189,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2191197596272</v>
+        <v>2193798109808</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2191197596416</v>
+        <v>2193798109952</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>271454.1741172775</v>
       </c>
       <c r="G114" t="n">
-        <v>2191198129616</v>
+        <v>2193798630864</v>
       </c>
       <c r="H114" t="n">
         <v>96.79708788335115</v>
@@ -5273,7 +5273,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2191197596624</v>
+        <v>2193798110160</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>271463.8087663433</v>
       </c>
       <c r="G115" t="n">
-        <v>2191198129616</v>
+        <v>2193798630864</v>
       </c>
       <c r="H115" t="n">
         <v>96.79708788335115</v>
@@ -5313,7 +5313,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2191197604064</v>
+        <v>2193798105312</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>271466.7482150371</v>
       </c>
       <c r="G116" t="n">
-        <v>2191198129616</v>
+        <v>2193798630864</v>
       </c>
       <c r="H116" t="n">
         <v>96.79708788335115</v>
@@ -5353,7 +5353,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2191197605232</v>
+        <v>2193798106480</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>271466.3051334132</v>
       </c>
       <c r="G117" t="n">
-        <v>2191198068208</v>
+        <v>2193798544880</v>
       </c>
       <c r="H117" t="n">
         <v>14.32128075074995</v>
@@ -5393,7 +5393,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2191197605456</v>
+        <v>2193798106704</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>271445.9053990694</v>
       </c>
       <c r="G118" t="n">
-        <v>2191198129616</v>
+        <v>2193798630864</v>
       </c>
       <c r="H118" t="n">
         <v>96.79708788335115</v>
@@ -5433,7 +5433,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2191197605632</v>
+        <v>2193798106880</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>271430.2338975711</v>
       </c>
       <c r="G119" t="n">
-        <v>2191198129616</v>
+        <v>2193798630864</v>
       </c>
       <c r="H119" t="n">
         <v>96.79708788335115</v>
@@ -5473,7 +5473,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2191197624368</v>
+        <v>2193798137904</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>271449.5513042968</v>
       </c>
       <c r="G120" t="n">
-        <v>2191198129600</v>
+        <v>2193798630848</v>
       </c>
       <c r="H120" t="n">
         <v>232.5594735009597</v>
@@ -5513,7 +5513,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2191197625536</v>
+        <v>2193798139072</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>271431.9889258298</v>
       </c>
       <c r="G121" t="n">
-        <v>2191198129616</v>
+        <v>2193798630864</v>
       </c>
       <c r="H121" t="n">
         <v>96.79708788335115</v>
@@ -5553,7 +5553,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2191197600208</v>
+        <v>2193798162896</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>271427.0909125669</v>
       </c>
       <c r="G122" t="n">
-        <v>2191198129616</v>
+        <v>2193798630864</v>
       </c>
       <c r="H122" t="n">
         <v>96.79708788335115</v>
@@ -5593,7 +5593,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2191197601392</v>
+        <v>2193798164080</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>271416.9245460071</v>
       </c>
       <c r="G123" t="n">
-        <v>2191198129616</v>
+        <v>2193798630864</v>
       </c>
       <c r="H123" t="n">
         <v>96.79708788335115</v>
@@ -5633,7 +5633,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2191197601568</v>
+        <v>2193798164256</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2191197629520</v>
+        <v>2193798147152</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>271076.6215528762</v>
       </c>
       <c r="G125" t="n">
-        <v>2191197629504</v>
+        <v>2193798147136</v>
       </c>
       <c r="H125" t="n">
         <v>68.18858983141372</v>
@@ -5717,7 +5717,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2191197632864</v>
+        <v>2193798134112</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>271010.487270325</v>
       </c>
       <c r="G126" t="n">
-        <v>2191197634032</v>
+        <v>2193798135280</v>
       </c>
       <c r="H126" t="n">
         <v>18.24637482843626</v>
@@ -5757,7 +5757,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2191197634048</v>
+        <v>2193798135296</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>270994.8307401053</v>
       </c>
       <c r="G127" t="n">
-        <v>2191197634032</v>
+        <v>2193798135280</v>
       </c>
       <c r="H127" t="n">
         <v>18.24637482843626</v>
@@ -5797,7 +5797,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2191197637392</v>
+        <v>2193798167312</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>271006.8424187158</v>
       </c>
       <c r="G128" t="n">
-        <v>2191197634032</v>
+        <v>2193798135280</v>
       </c>
       <c r="H128" t="n">
         <v>18.24637482843626</v>
@@ -5837,7 +5837,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2191197607968</v>
+        <v>2193798150176</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>270992.8553019549</v>
       </c>
       <c r="G129" t="n">
-        <v>2191197580480</v>
+        <v>2193798094016</v>
       </c>
       <c r="H129" t="n">
         <v>160.4929627174585</v>
@@ -5877,7 +5877,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2191197609280</v>
+        <v>2193798151488</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         <v>270832.4517704776</v>
       </c>
       <c r="G130" t="n">
-        <v>2191197580464</v>
+        <v>2193798094000</v>
       </c>
       <c r="H130" t="n">
         <v>67.16196527960973</v>
@@ -5917,7 +5917,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2191197653616</v>
+        <v>2193798142576</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>270889.8615858204</v>
       </c>
       <c r="G131" t="n">
-        <v>2191198129808</v>
+        <v>2193798631056</v>
       </c>
       <c r="H131" t="n">
         <v>11.20175667773404</v>
@@ -5957,7 +5957,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2191197653792</v>
+        <v>2193798142752</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>270891.5278617885</v>
       </c>
       <c r="G132" t="n">
-        <v>2191197924064</v>
+        <v>2193798425312</v>
       </c>
       <c r="H132" t="n">
         <v>1.493563305358725</v>
@@ -5997,7 +5997,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2191197654064</v>
+        <v>2193798143024</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>270834.7154237012</v>
       </c>
       <c r="G133" t="n">
-        <v>2191197580480</v>
+        <v>2193798094016</v>
       </c>
       <c r="H133" t="n">
         <v>160.4929627174585</v>
@@ -6037,7 +6037,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2191197654144</v>
+        <v>2193798143104</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>270542.6826362134</v>
       </c>
       <c r="G134" t="n">
-        <v>2191198079264</v>
+        <v>2193798621472</v>
       </c>
       <c r="H134" t="n">
         <v>41.30827049002764</v>
@@ -6077,7 +6077,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2191197654352</v>
+        <v>2193798143312</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>270501.9725360178</v>
       </c>
       <c r="G135" t="n">
-        <v>2191198079328</v>
+        <v>2193798621536</v>
       </c>
       <c r="H135" t="n">
         <v>4.244223028429932</v>
@@ -6117,7 +6117,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>2191197654624</v>
+        <v>2193798143584</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2191197645680</v>
+        <v>2193798171504</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>270572.2186312473</v>
       </c>
       <c r="G137" t="n">
-        <v>2191197654304</v>
+        <v>2193798143264</v>
       </c>
       <c r="H137" t="n">
         <v>512.5797130187075</v>
@@ -6201,7 +6201,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2191197657248</v>
+        <v>2193798174880</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>270570.4733258648</v>
       </c>
       <c r="G138" t="n">
-        <v>2191198146368</v>
+        <v>2193798614848</v>
       </c>
       <c r="H138" t="n">
         <v>11.05174263976665</v>
@@ -6241,7 +6241,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2191197657424</v>
+        <v>2193798175056</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>270580.7019038327</v>
       </c>
       <c r="G139" t="n">
-        <v>2191198144592</v>
+        <v>2193798613072</v>
       </c>
       <c r="H139" t="n">
         <v>12.53270354636685</v>
@@ -6281,7 +6281,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2191197657728</v>
+        <v>2193798175360</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>270496.8611891939</v>
       </c>
       <c r="G140" t="n">
-        <v>2191198079248</v>
+        <v>2193798621456</v>
       </c>
       <c r="H140" t="n">
         <v>27.86935987145456</v>
@@ -6321,7 +6321,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>2191197658896</v>
+        <v>2193798176528</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>270495.6382570262</v>
       </c>
       <c r="G141" t="n">
-        <v>2191198079248</v>
+        <v>2193798621456</v>
       </c>
       <c r="H141" t="n">
         <v>27.86935987145456</v>
@@ -6361,7 +6361,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2191197649968</v>
+        <v>2193798179888</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>270493.7862545462</v>
       </c>
       <c r="G142" t="n">
-        <v>2191198079248</v>
+        <v>2193798621456</v>
       </c>
       <c r="H142" t="n">
         <v>27.86935987145456</v>
@@ -6401,7 +6401,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2191197661520</v>
+        <v>2193798154576</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>270518.5029658029</v>
       </c>
       <c r="G143" t="n">
-        <v>2191197649952</v>
+        <v>2193798179872</v>
       </c>
       <c r="H143" t="n">
         <v>29.60324851931957</v>
@@ -6441,7 +6441,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2191197662688</v>
+        <v>2193798155744</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2191197666032</v>
+        <v>2193798183664</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>270536.4361682152</v>
       </c>
       <c r="G145" t="n">
-        <v>2191197649952</v>
+        <v>2193798179872</v>
       </c>
       <c r="H145" t="n">
         <v>29.60324851931957</v>
@@ -6525,7 +6525,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>2191197669376</v>
+        <v>2193798187008</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>270833.4236853116</v>
       </c>
       <c r="G146" t="n">
-        <v>2191198130032</v>
+        <v>2193798631280</v>
       </c>
       <c r="H146" t="n">
         <v>200.3909351424605</v>
@@ -6565,7 +6565,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2191197669616</v>
+        <v>2193798187248</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>270844.8149284992</v>
       </c>
       <c r="G147" t="n">
-        <v>2191197669600</v>
+        <v>2193798187232</v>
       </c>
       <c r="H147" t="n">
         <v>57.92831061312962</v>
@@ -6605,7 +6605,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2191197669792</v>
+        <v>2193798187424</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2191197670960</v>
+        <v>2193798188592</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>270825.2395791113</v>
       </c>
       <c r="G149" t="n">
-        <v>2191197669600</v>
+        <v>2193798187232</v>
       </c>
       <c r="H149" t="n">
         <v>57.92831061312962</v>
@@ -6689,7 +6689,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2191197641536</v>
+        <v>2193798159168</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>270852.8637337253</v>
       </c>
       <c r="G150" t="n">
-        <v>2191198130032</v>
+        <v>2193798631280</v>
       </c>
       <c r="H150" t="n">
         <v>200.3909351424605</v>
@@ -6729,7 +6729,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2191197689936</v>
+        <v>2193798215760</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>270820.2243489937</v>
       </c>
       <c r="G151" t="n">
-        <v>2191198120800</v>
+        <v>2193798601568</v>
       </c>
       <c r="H151" t="n">
         <v>15.06840095325415</v>
@@ -6769,7 +6769,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>2191197691040</v>
+        <v>2193798216864</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>270862.5447570828</v>
       </c>
       <c r="G152" t="n">
-        <v>2191198130032</v>
+        <v>2193798631280</v>
       </c>
       <c r="H152" t="n">
         <v>200.3909351424605</v>
@@ -6809,7 +6809,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>2191197691280</v>
+        <v>2193798217104</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>270873.2942072835</v>
       </c>
       <c r="G153" t="n">
-        <v>2191198130032</v>
+        <v>2193798631280</v>
       </c>
       <c r="H153" t="n">
         <v>200.3909351424605</v>
@@ -6849,7 +6849,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2191197691456</v>
+        <v>2193798217280</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>270870.0553755264</v>
       </c>
       <c r="G154" t="n">
-        <v>2191198130032</v>
+        <v>2193798631280</v>
       </c>
       <c r="H154" t="n">
         <v>200.3909351424605</v>
@@ -6889,7 +6889,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2191197694800</v>
+        <v>2193798220624</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2191197694976</v>
+        <v>2193798220800</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2191197695216</v>
+        <v>2193798221040</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>270874.7279172915</v>
       </c>
       <c r="G157" t="n">
-        <v>2191198130032</v>
+        <v>2193798631280</v>
       </c>
       <c r="H157" t="n">
         <v>200.3909351424605</v>
@@ -7017,7 +7017,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2191197698576</v>
+        <v>2193798203920</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>270980.0044987527</v>
       </c>
       <c r="G158" t="n">
-        <v>2191198130032</v>
+        <v>2193798631280</v>
       </c>
       <c r="H158" t="n">
         <v>200.3909351424605</v>
@@ -7057,7 +7057,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2191197699744</v>
+        <v>2193798205088</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>270996.7044868849</v>
       </c>
       <c r="G159" t="n">
-        <v>2191197698560</v>
+        <v>2193798203904</v>
       </c>
       <c r="H159" t="n">
         <v>24.31364603318311</v>
@@ -7097,7 +7097,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2191197703088</v>
+        <v>2193798208432</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>271019.8164233299</v>
       </c>
       <c r="G160" t="n">
-        <v>2191197838992</v>
+        <v>2193798336144</v>
       </c>
       <c r="H160" t="n">
         <v>9.890809737421675</v>
@@ -7137,7 +7137,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2191197703184</v>
+        <v>2193798208528</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>271015.0396264356</v>
       </c>
       <c r="G161" t="n">
-        <v>2191198146144</v>
+        <v>2193798614624</v>
       </c>
       <c r="H161" t="n">
         <v>11.89212093275725</v>
@@ -7177,7 +7177,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2191197703632</v>
+        <v>2193798208976</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>271018.245984914</v>
       </c>
       <c r="G162" t="n">
-        <v>2191198046832</v>
+        <v>2193798576752</v>
       </c>
       <c r="H162" t="n">
         <v>12.87836220499207</v>
@@ -7217,7 +7217,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2191197703936</v>
+        <v>2193798209280</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>271102.9910531323</v>
       </c>
       <c r="G163" t="n">
-        <v>2191197703920</v>
+        <v>2193798209264</v>
       </c>
       <c r="H163" t="n">
         <v>17.65725322560998</v>
@@ -7257,7 +7257,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2191197682704</v>
+        <v>2193798212624</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>271119.1105644457</v>
       </c>
       <c r="G164" t="n">
-        <v>2191198428352</v>
+        <v>2193798888640</v>
       </c>
       <c r="H164" t="n">
         <v>131.3879023649633</v>
@@ -7297,7 +7297,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2191197673760</v>
+        <v>2193798191392</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>271116.8726324755</v>
       </c>
       <c r="G165" t="n">
-        <v>2191197703920</v>
+        <v>2193798209264</v>
       </c>
       <c r="H165" t="n">
         <v>17.65725322560998</v>
@@ -7337,7 +7337,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>2191197674928</v>
+        <v>2193798192560</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>271136.6511452313</v>
       </c>
       <c r="G166" t="n">
-        <v>2191197690944</v>
+        <v>2193798216768</v>
       </c>
       <c r="H166" t="n">
         <v>2.123984129418647</v>
@@ -7377,7 +7377,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2191197686464</v>
+        <v>2193798224576</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>270772.1468634052</v>
       </c>
       <c r="G167" t="n">
-        <v>2191198013488</v>
+        <v>2193798535216</v>
       </c>
       <c r="H167" t="n">
         <v>117.02478478119</v>
@@ -7417,7 +7417,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>2191197687648</v>
+        <v>2193798225760</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>270770.3208490806</v>
       </c>
       <c r="G168" t="n">
-        <v>2191198013488</v>
+        <v>2193798535216</v>
       </c>
       <c r="H168" t="n">
         <v>117.02478478119</v>
@@ -7457,7 +7457,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>2191197706480</v>
+        <v>2193798195440</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>2191197707648</v>
+        <v>2193798196608</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>270665.3027228133</v>
       </c>
       <c r="G170" t="n">
-        <v>2191198013488</v>
+        <v>2193798535216</v>
       </c>
       <c r="H170" t="n">
         <v>117.02478478119</v>
@@ -7541,7 +7541,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>2191197678240</v>
+        <v>2193798228640</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>270571.5109456423</v>
       </c>
       <c r="G171" t="n">
-        <v>2191197726896</v>
+        <v>2193798260912</v>
       </c>
       <c r="H171" t="n">
         <v>63.10444291843577</v>
@@ -7581,7 +7581,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>2191197679408</v>
+        <v>2193798229808</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>2191197710432</v>
+        <v>2193798199392</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>270595.4189819725</v>
       </c>
       <c r="G173" t="n">
-        <v>2191197678224</v>
+        <v>2193798228624</v>
       </c>
       <c r="H173" t="n">
         <v>96.19192663266118</v>
@@ -7665,7 +7665,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>2191197711600</v>
+        <v>2193798200560</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>270573.5282236687</v>
       </c>
       <c r="G174" t="n">
-        <v>2191197678224</v>
+        <v>2193798228624</v>
       </c>
       <c r="H174" t="n">
         <v>96.19192663266118</v>
@@ -7705,7 +7705,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>2191197711792</v>
+        <v>2193798200752</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>270486.0347068473</v>
       </c>
       <c r="G175" t="n">
-        <v>2191198128160</v>
+        <v>2193798629408</v>
       </c>
       <c r="H175" t="n">
         <v>4.120087363790011</v>
@@ -7745,7 +7745,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>2191197712000</v>
+        <v>2193798200960</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>270480.8363234539</v>
       </c>
       <c r="G176" t="n">
-        <v>2191198128160</v>
+        <v>2193798629408</v>
       </c>
       <c r="H176" t="n">
         <v>4.120087363790011</v>
@@ -7785,7 +7785,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>2191197739008</v>
+        <v>2193798248448</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>270494.2062976687</v>
       </c>
       <c r="G177" t="n">
-        <v>2191197740176</v>
+        <v>2193798249616</v>
       </c>
       <c r="H177" t="n">
         <v>11.5445466988301</v>
@@ -7825,7 +7825,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2191197740192</v>
+        <v>2193798249632</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>270487.9634559458</v>
       </c>
       <c r="G178" t="n">
-        <v>2191197743536</v>
+        <v>2193798257072</v>
       </c>
       <c r="H178" t="n">
         <v>17.21464929899947</v>
@@ -7865,7 +7865,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>2191197743552</v>
+        <v>2193798257088</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>270481.6583304007</v>
       </c>
       <c r="G179" t="n">
-        <v>2191197744720</v>
+        <v>2193798258256</v>
       </c>
       <c r="H179" t="n">
         <v>28.47585395909379</v>
@@ -7905,7 +7905,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>2191197744736</v>
+        <v>2193798258272</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>270493.0196767049</v>
       </c>
       <c r="G180" t="n">
-        <v>2191197719440</v>
+        <v>2193798241168</v>
       </c>
       <c r="H180" t="n">
         <v>23.66885669733918</v>
@@ -7945,7 +7945,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>2191197719456</v>
+        <v>2193798241184</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>270515.0437972639</v>
       </c>
       <c r="G181" t="n">
-        <v>2191197719440</v>
+        <v>2193798241168</v>
       </c>
       <c r="H181" t="n">
         <v>23.66885669733918</v>
@@ -7985,7 +7985,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>2191197727008</v>
+        <v>2193798261024</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>270720.5268863281</v>
       </c>
       <c r="G182" t="n">
-        <v>2191198182576</v>
+        <v>2193798646960</v>
       </c>
       <c r="H182" t="n">
         <v>8.075897745385053</v>
@@ -8025,7 +8025,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>2191197727200</v>
+        <v>2193798261216</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>270259.8070811738</v>
       </c>
       <c r="G183" t="n">
-        <v>2191198182576</v>
+        <v>2193798646960</v>
       </c>
       <c r="H183" t="n">
         <v>8.075897745385053</v>
@@ -8065,7 +8065,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>2191197727392</v>
+        <v>2193798261408</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>270261.7325270717</v>
       </c>
       <c r="G184" t="n">
-        <v>2191198128608</v>
+        <v>2193798629856</v>
       </c>
       <c r="H184" t="n">
         <v>13.28094544674264</v>
@@ -8105,7 +8105,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>2191197727664</v>
+        <v>2193798261680</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>270242.4562876309</v>
       </c>
       <c r="G185" t="n">
-        <v>2191198182576</v>
+        <v>2193798646960</v>
       </c>
       <c r="H185" t="n">
         <v>8.075897745385053</v>
@@ -8145,7 +8145,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>2191197727840</v>
+        <v>2193798261856</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>270245.2724511456</v>
       </c>
       <c r="G186" t="n">
-        <v>2191198128576</v>
+        <v>2193798629824</v>
       </c>
       <c r="H186" t="n">
         <v>13.27452374449263</v>
@@ -8185,7 +8185,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>2191197714816</v>
+        <v>2193798232448</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>270247.5161882179</v>
       </c>
       <c r="G187" t="n">
-        <v>2191197715984</v>
+        <v>2193798233616</v>
       </c>
       <c r="H187" t="n">
         <v>2.704084188621659</v>
@@ -8225,7 +8225,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>2191197716000</v>
+        <v>2193798233632</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>270247.8688228072</v>
       </c>
       <c r="G188" t="n">
-        <v>2191197715984</v>
+        <v>2193798233616</v>
       </c>
       <c r="H188" t="n">
         <v>2.704084188621659</v>
@@ -8265,7 +8265,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>2191197716176</v>
+        <v>2193798233808</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>270244.7457775043</v>
       </c>
       <c r="G189" t="n">
-        <v>2191197727648</v>
+        <v>2193798261664</v>
       </c>
       <c r="H189" t="n">
         <v>3.045078305531444</v>
@@ -8305,7 +8305,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>2191197730832</v>
+        <v>2193798264848</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>270214.0055290113</v>
       </c>
       <c r="G190" t="n">
-        <v>2191198182576</v>
+        <v>2193798646960</v>
       </c>
       <c r="H190" t="n">
         <v>8.075897745385053</v>
@@ -8345,7 +8345,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>2191197731008</v>
+        <v>2193798265024</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>270244.5390704957</v>
       </c>
       <c r="G191" t="n">
-        <v>2191197727648</v>
+        <v>2193798261664</v>
       </c>
       <c r="H191" t="n">
         <v>3.045078305531444</v>
@@ -8385,7 +8385,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>2191197732384</v>
+        <v>2193798266400</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>270200.6716861778</v>
       </c>
       <c r="G192" t="n">
-        <v>2191198128592</v>
+        <v>2193798629840</v>
       </c>
       <c r="H192" t="n">
         <v>13.27452407403435</v>
@@ -8425,7 +8425,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>2191197735744</v>
+        <v>2193798236992</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>270202.9154232501</v>
       </c>
       <c r="G193" t="n">
-        <v>2191197735728</v>
+        <v>2193798236976</v>
       </c>
       <c r="H193" t="n">
         <v>2.828427125364912</v>
@@ -8465,7 +8465,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>2191197747280</v>
+        <v>2193798269008</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>270203.2162765323</v>
       </c>
       <c r="G194" t="n">
-        <v>2191197732336</v>
+        <v>2193798266352</v>
       </c>
       <c r="H194" t="n">
         <v>2.301321108717017</v>
@@ -8505,7 +8505,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>2191197747456</v>
+        <v>2193798269184</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>270200.22403081</v>
       </c>
       <c r="G195" t="n">
-        <v>2191198128592</v>
+        <v>2193798629840</v>
       </c>
       <c r="H195" t="n">
         <v>13.27452407403435</v>
@@ -8545,7 +8545,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>2191197747648</v>
+        <v>2193798269376</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>270199.9969462833</v>
       </c>
       <c r="G196" t="n">
-        <v>2191198052032</v>
+        <v>2193798553280</v>
       </c>
       <c r="H196" t="n">
         <v>2.439147781228868</v>
@@ -8585,7 +8585,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>2191197748816</v>
+        <v>2193798270544</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>270197.6413782669</v>
       </c>
       <c r="G197" t="n">
-        <v>2191198052032</v>
+        <v>2193798553280</v>
       </c>
       <c r="H197" t="n">
         <v>2.439147781228868</v>
@@ -8625,7 +8625,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>2191197749040</v>
+        <v>2193798270768</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>269866.6363148938</v>
       </c>
       <c r="G198" t="n">
-        <v>2191198182576</v>
+        <v>2193798646960</v>
       </c>
       <c r="H198" t="n">
         <v>8.075897745385053</v>
@@ -8665,7 +8665,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>2191197751392</v>
+        <v>2193798252640</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>269868.5630330763</v>
       </c>
       <c r="G199" t="n">
-        <v>2191198047744</v>
+        <v>2193798577664</v>
       </c>
       <c r="H199" t="n">
         <v>14.27452587912393</v>
@@ -8705,7 +8705,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>2191197751568</v>
+        <v>2193798252816</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>269790.8698441816</v>
       </c>
       <c r="G200" t="n">
-        <v>2191198182576</v>
+        <v>2193798646960</v>
       </c>
       <c r="H200" t="n">
         <v>8.075897745385053</v>
@@ -8745,7 +8745,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>2191197751760</v>
+        <v>2193798253008</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>2191197752944</v>
+        <v>2193798254192</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>269496.541814478</v>
       </c>
       <c r="G202" t="n">
-        <v>2191198042864</v>
+        <v>2193798626032</v>
       </c>
       <c r="H202" t="n">
         <v>68.80190652965797</v>
@@ -8829,7 +8829,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>2191197753120</v>
+        <v>2193798254368</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>2191197722672</v>
+        <v>2193798273072</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>269757.6172745682</v>
       </c>
       <c r="G204" t="n">
-        <v>2191198001600</v>
+        <v>2193798572480</v>
       </c>
       <c r="H204" t="n">
         <v>1.996665780542771</v>
@@ -8913,7 +8913,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>2191197722848</v>
+        <v>2193798273248</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>269387.9676127791</v>
       </c>
       <c r="G205" t="n">
-        <v>2191198128704</v>
+        <v>2193798629952</v>
       </c>
       <c r="H205" t="n">
         <v>10.000003765938</v>
@@ -8953,7 +8953,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>2191197723056</v>
+        <v>2193798273456</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>2191197723232</v>
+        <v>2193798273632</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>2191197723424</v>
+        <v>2193798273824</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>268946.6036848719</v>
       </c>
       <c r="G208" t="n">
-        <v>2191197976736</v>
+        <v>2193798498464</v>
       </c>
       <c r="H208" t="n">
         <v>74.95418943520367</v>
@@ -9081,7 +9081,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2191197723600</v>
+        <v>2193798274000</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>2191197767920</v>
+        <v>2193798244592</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>2191197782304</v>
+        <v>2193798326560</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>269767.7197627874</v>
       </c>
       <c r="G211" t="n">
-        <v>2191198182576</v>
+        <v>2193798646960</v>
       </c>
       <c r="H211" t="n">
         <v>8.075897745385053</v>
@@ -9209,7 +9209,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>2191197783472</v>
+        <v>2193798327728</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>2191197866144</v>
+        <v>2193798396064</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>270801.2780449474</v>
       </c>
       <c r="G213" t="n">
-        <v>2191197924336</v>
+        <v>2193798425584</v>
       </c>
       <c r="H213" t="n">
         <v>198.5009004505085</v>
@@ -9293,7 +9293,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>2191197874400</v>
+        <v>2193798400224</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>272028.6718775262</v>
       </c>
       <c r="G214" t="n">
-        <v>2191197863216</v>
+        <v>2193798376752</v>
       </c>
       <c r="H214" t="n">
         <v>10.59039465818169</v>
@@ -9333,7 +9333,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>2191197863520</v>
+        <v>2193798377056</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>272030.5204550792</v>
       </c>
       <c r="G215" t="n">
-        <v>2191197863216</v>
+        <v>2193798376752</v>
       </c>
       <c r="H215" t="n">
         <v>10.59039465818169</v>
@@ -9373,7 +9373,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>2191197854096</v>
+        <v>2193798379920</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>271964.5062547167</v>
       </c>
       <c r="G216" t="n">
-        <v>2191197855264</v>
+        <v>2193798381088</v>
       </c>
       <c r="H216" t="n">
         <v>10.68956745225957</v>
@@ -9413,7 +9413,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>2191197855472</v>
+        <v>2193798381296</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>2191197912160</v>
+        <v>2193798384736</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>271943.5055327221</v>
       </c>
       <c r="G218" t="n">
-        <v>2191198067104</v>
+        <v>2193798543776</v>
       </c>
       <c r="H218" t="n">
         <v>98.57758499072176</v>
@@ -9497,7 +9497,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>2191197899168</v>
+        <v>2193798412704</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>271941.6697347325</v>
       </c>
       <c r="G219" t="n">
-        <v>2191197900336</v>
+        <v>2193798413872</v>
       </c>
       <c r="H219" t="n">
         <v>21.26663703828932</v>
@@ -9537,7 +9537,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>2191197900592</v>
+        <v>2193798414128</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>271808.0813290487</v>
       </c>
       <c r="G220" t="n">
-        <v>2191198067104</v>
+        <v>2193798543776</v>
       </c>
       <c r="H220" t="n">
         <v>98.57758499072176</v>
@@ -9577,7 +9577,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>2191197903952</v>
+        <v>2193798388816</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>271797.6850096916</v>
       </c>
       <c r="G221" t="n">
-        <v>2191197887840</v>
+        <v>2193798430048</v>
       </c>
       <c r="H221" t="n">
         <v>173.3745196725738</v>
@@ -9617,7 +9617,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>2191197886912</v>
+        <v>2193798429120</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>271891.2664968439</v>
       </c>
       <c r="G222" t="n">
-        <v>2191197887472</v>
+        <v>2193798429680</v>
       </c>
       <c r="H222" t="n">
         <v>1.123279655488041</v>
@@ -9657,7 +9657,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>2191197887216</v>
+        <v>2193798429424</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>271887.5874971106</v>
       </c>
       <c r="G223" t="n">
-        <v>2191198372768</v>
+        <v>2193798867872</v>
       </c>
       <c r="H223" t="n">
         <v>1.876727948519128</v>
@@ -9697,7 +9697,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>2191197919296</v>
+        <v>2193798416448</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>271535.2071496394</v>
       </c>
       <c r="G224" t="n">
-        <v>2191197920464</v>
+        <v>2193798417616</v>
       </c>
       <c r="H224" t="n">
         <v>9.835522796082014</v>
@@ -9737,7 +9737,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>2191197920480</v>
+        <v>2193798417632</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>271536.9211721893</v>
       </c>
       <c r="G225" t="n">
-        <v>2191198067104</v>
+        <v>2193798543776</v>
       </c>
       <c r="H225" t="n">
         <v>98.57758499072176</v>
@@ -9777,7 +9777,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>2191197907520</v>
+        <v>2193798433344</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>271434.8584186744</v>
       </c>
       <c r="G226" t="n">
-        <v>2191198026816</v>
+        <v>2193798540352</v>
       </c>
       <c r="H226" t="n">
         <v>2.061552804687749</v>
@@ -9817,7 +9817,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>2191197908768</v>
+        <v>2193798434592</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>271409.62668352</v>
       </c>
       <c r="G227" t="n">
-        <v>2191197916208</v>
+        <v>2193798442032</v>
       </c>
       <c r="H227" t="n">
         <v>9.614559933552654</v>
@@ -9857,7 +9857,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>2191197916224</v>
+        <v>2193798442048</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>271411.3005809774</v>
       </c>
       <c r="G228" t="n">
-        <v>2191197891328</v>
+        <v>2193798421248</v>
       </c>
       <c r="H228" t="n">
         <v>9.48007705519554</v>
@@ -9897,7 +9897,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>2191197894992</v>
+        <v>2193798445392</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>2191197896176</v>
+        <v>2193798446576</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>2191197924384</v>
+        <v>2193798425632</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>270803.0751077529</v>
       </c>
       <c r="G231" t="n">
-        <v>2191197936784</v>
+        <v>2193798474896</v>
       </c>
       <c r="H231" t="n">
         <v>2.453539902605644</v>
@@ -10025,7 +10025,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>2191197943936</v>
+        <v>2193798436992</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>270801.5571931014</v>
       </c>
       <c r="G232" t="n">
-        <v>2191197936800</v>
+        <v>2193798474912</v>
       </c>
       <c r="H232" t="n">
         <v>11.44940023099987</v>
@@ -10065,7 +10065,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>2191197956496</v>
+        <v>2193798457744</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>2191197957872</v>
+        <v>2193798459120</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>270775.0705945665</v>
       </c>
       <c r="G234" t="n">
-        <v>2191197580464</v>
+        <v>2193798094000</v>
       </c>
       <c r="H234" t="n">
         <v>67.16196527960973</v>
@@ -10149,7 +10149,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>2191197928448</v>
+        <v>2193798482944</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>270537.720743484</v>
       </c>
       <c r="G235" t="n">
-        <v>2191198079264</v>
+        <v>2193798621472</v>
       </c>
       <c r="H235" t="n">
         <v>41.30827049002764</v>
@@ -10189,7 +10189,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>2191197931728</v>
+        <v>2193798461648</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>270559.9799647911</v>
       </c>
       <c r="G236" t="n">
-        <v>2191197654288</v>
+        <v>2193798143248</v>
       </c>
       <c r="H236" t="n">
         <v>26.91287128998085</v>
@@ -10229,7 +10229,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>2191197977872</v>
+        <v>2193798499600</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>271664.4534056989</v>
       </c>
       <c r="G237" t="n">
-        <v>2191197617664</v>
+        <v>2193798114816</v>
       </c>
       <c r="H237" t="n">
         <v>7.893267201939259</v>
@@ -10269,7 +10269,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>2191197981216</v>
+        <v>2193798494752</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>271663.7745591589</v>
       </c>
       <c r="G238" t="n">
-        <v>2191197617664</v>
+        <v>2193798114816</v>
       </c>
       <c r="H238" t="n">
         <v>7.893267201939259</v>
@@ -10309,7 +10309,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>2191197969280</v>
+        <v>2193798515584</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>270598.8478307084</v>
       </c>
       <c r="G239" t="n">
-        <v>2191197969200</v>
+        <v>2193798515504</v>
       </c>
       <c r="H239" t="n">
         <v>7.073300571032424</v>
@@ -10349,7 +10349,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>2191197964432</v>
+        <v>2193798502544</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>270603.1544476355</v>
       </c>
       <c r="G240" t="n">
-        <v>2191198129760</v>
+        <v>2193798631008</v>
       </c>
       <c r="H240" t="n">
         <v>99.93231426103372</v>
@@ -10389,7 +10389,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>2191198018624</v>
+        <v>2193798487104</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>271642.2757855572</v>
       </c>
       <c r="G241" t="n">
-        <v>2191198067104</v>
+        <v>2193798543776</v>
       </c>
       <c r="H241" t="n">
         <v>98.57758499072176</v>
@@ -10429,7 +10429,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>2191198009776</v>
+        <v>2193798523312</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>271469.2467187049</v>
       </c>
       <c r="G242" t="n">
-        <v>2191198026576</v>
+        <v>2193798540112</v>
       </c>
       <c r="H242" t="n">
         <v>9.917763374276667</v>
@@ -10469,7 +10469,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>2191198010944</v>
+        <v>2193798524480</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>271459.4448922204</v>
       </c>
       <c r="G243" t="n">
-        <v>2191198026576</v>
+        <v>2193798540112</v>
       </c>
       <c r="H243" t="n">
         <v>9.917763374276667</v>
@@ -10509,7 +10509,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>2191197997584</v>
+        <v>2193798527504</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>271265.6061152288</v>
       </c>
       <c r="G244" t="n">
-        <v>2191198046416</v>
+        <v>2193798576336</v>
       </c>
       <c r="H244" t="n">
         <v>11.49639084263746</v>
@@ -10549,7 +10549,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>2191197997760</v>
+        <v>2193798527680</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>271275.3963801505</v>
       </c>
       <c r="G245" t="n">
-        <v>2191197998064</v>
+        <v>2193798527984</v>
       </c>
       <c r="H245" t="n">
         <v>1.501459923954576</v>
@@ -10589,7 +10589,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>2191197998480</v>
+        <v>2193798528400</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>270904.2793171572</v>
       </c>
       <c r="G246" t="n">
-        <v>2191197580480</v>
+        <v>2193798094016</v>
       </c>
       <c r="H246" t="n">
         <v>160.4929627174585</v>
@@ -10629,7 +10629,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>2191198030496</v>
+        <v>2193798531744</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         <v>270898.3602049659</v>
       </c>
       <c r="G247" t="n">
-        <v>2191197580480</v>
+        <v>2193798094016</v>
       </c>
       <c r="H247" t="n">
         <v>160.4929627174585</v>
@@ -10669,7 +10669,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>2191198014960</v>
+        <v>2193798536688</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>271081.6148717795</v>
       </c>
       <c r="G248" t="n">
-        <v>2191198014944</v>
+        <v>2193798536672</v>
       </c>
       <c r="H248" t="n">
         <v>119.4162892077596</v>
@@ -10709,7 +10709,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>2191198022400</v>
+        <v>2193798519552</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>271091.0677331542</v>
       </c>
       <c r="G249" t="n">
-        <v>2191198005808</v>
+        <v>2193798548016</v>
       </c>
       <c r="H249" t="n">
         <v>61.9803865381803</v>
@@ -10749,7 +10749,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>2191198002960</v>
+        <v>2193798573840</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>271699.276253096</v>
       </c>
       <c r="G250" t="n">
-        <v>2191198067104</v>
+        <v>2193798543776</v>
       </c>
       <c r="H250" t="n">
         <v>98.57758499072176</v>
@@ -10789,7 +10789,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>2191198034976</v>
+        <v>2193798564896</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>2191198006000</v>
+        <v>2193798548208</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>2191198006192</v>
+        <v>2193798548400</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>271217.6660328318</v>
       </c>
       <c r="G253" t="n">
-        <v>2191198051632</v>
+        <v>2193798552880</v>
       </c>
       <c r="H253" t="n">
         <v>1.306976209032691</v>
@@ -10917,7 +10917,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>2191198006352</v>
+        <v>2193798548560</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>271216.5597613126</v>
       </c>
       <c r="G254" t="n">
-        <v>2191198051632</v>
+        <v>2193798552880</v>
       </c>
       <c r="H254" t="n">
         <v>1.306976209032691</v>
@@ -10957,7 +10957,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>2191198064096</v>
+        <v>2193798557152</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>269373.9777842187</v>
       </c>
       <c r="G255" t="n">
-        <v>2191198047952</v>
+        <v>2193798577872</v>
       </c>
       <c r="H255" t="n">
         <v>36.64790697714615</v>
@@ -10997,7 +10997,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>2191198079344</v>
+        <v>2193798621552</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>270498.5064771506</v>
       </c>
       <c r="G256" t="n">
-        <v>2191198079328</v>
+        <v>2193798621536</v>
       </c>
       <c r="H256" t="n">
         <v>4.244223028429932</v>
@@ -11037,7 +11037,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>2191198136560</v>
+        <v>2193798633712</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>269804.2557686337</v>
       </c>
       <c r="G257" t="n">
-        <v>2191198182576</v>
+        <v>2193798646960</v>
       </c>
       <c r="H257" t="n">
         <v>8.075897745385053</v>
@@ -11077,7 +11077,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>2191198150192</v>
+        <v>2193798655536</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>2191198150352</v>
+        <v>2193798655696</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>2191198173616</v>
+        <v>2193798662576</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>269811.1731854596</v>
       </c>
       <c r="G260" t="n">
-        <v>2191198173600</v>
+        <v>2193798662560</v>
       </c>
       <c r="H260" t="n">
         <v>6.411239071937053</v>
@@ -11205,7 +11205,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>2191198174784</v>
+        <v>2193798663744</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>2191198175088</v>
+        <v>2193798664048</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>269810.8131999463</v>
       </c>
       <c r="G262" t="n">
-        <v>2191198173568</v>
+        <v>2193798662528</v>
       </c>
       <c r="H262" t="n">
         <v>6.553304755645731</v>
@@ -11289,7 +11289,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>2191198162704</v>
+        <v>2193798639376</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>269807.4876903406</v>
       </c>
       <c r="G263" t="n">
-        <v>2191198182576</v>
+        <v>2193798646960</v>
       </c>
       <c r="H263" t="n">
         <v>8.075897745385053</v>
@@ -11329,7 +11329,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>2191198165072</v>
+        <v>2193798670416</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>269813.3673982342</v>
       </c>
       <c r="G264" t="n">
-        <v>2191198182576</v>
+        <v>2193798646960</v>
       </c>
       <c r="H264" t="n">
         <v>8.075897745385053</v>
@@ -11369,7 +11369,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>2191198365280</v>
+        <v>2193798893152</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>272102.7491481227</v>
       </c>
       <c r="G265" t="n">
-        <v>2191198427872</v>
+        <v>2193798888160</v>
       </c>
       <c r="H265" t="n">
         <v>2.145406812566653</v>
@@ -11409,7 +11409,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>2191198377584</v>
+        <v>2193798880880</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>272102.3748923622</v>
       </c>
       <c r="G266" t="n">
-        <v>2191198427872</v>
+        <v>2193798888160</v>
       </c>
       <c r="H266" t="n">
         <v>2.145406812566653</v>
@@ -11449,7 +11449,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>2191198416480</v>
+        <v>2193798901344</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>271669.5008091997</v>
       </c>
       <c r="G267" t="n">
-        <v>2191198428144</v>
+        <v>2193798888432</v>
       </c>
       <c r="H267" t="n">
         <v>251.2672588436565</v>
@@ -11489,7 +11489,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>2191198419680</v>
+        <v>2193798896352</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>271667.7924557842</v>
       </c>
       <c r="G268" t="n">
-        <v>2191198412592</v>
+        <v>2193798872880</v>
       </c>
       <c r="H268" t="n">
         <v>4.934026375364506</v>
@@ -11529,7 +11529,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>2191198412608</v>
+        <v>2193798872896</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>271669.1182193337</v>
       </c>
       <c r="G269" t="n">
-        <v>2191197617664</v>
+        <v>2193798114816</v>
       </c>
       <c r="H269" t="n">
         <v>7.893267201939259</v>
@@ -11569,7 +11569,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>2191198390736</v>
+        <v>2193798883792</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>2191198391904</v>
+        <v>2193798884960</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>271234.6619594583</v>
       </c>
       <c r="G271" t="n">
-        <v>2191198423936</v>
+        <v>2193798916992</v>
       </c>
       <c r="H271" t="n">
         <v>4.934026375333853</v>
@@ -11653,7 +11653,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>2191198423952</v>
+        <v>2193798917008</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>2191198424384</v>
+        <v>2193798917440</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>271238.6833213317</v>
       </c>
       <c r="G273" t="n">
-        <v>2191198423936</v>
+        <v>2193798916992</v>
       </c>
       <c r="H273" t="n">
         <v>4.934026375333853</v>
@@ -11737,7 +11737,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>2191198428896</v>
+        <v>2193798889184</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
